--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/31_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/31_11R22.xlsx
@@ -1223,100 +1223,100 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.283583469067571</v>
+        <v>0.2426349288889093</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>3.752411038199854E-06</v>
       </c>
       <c r="BN2">
-        <v>0.1393825374979737</v>
+        <v>0.1243411031884609</v>
       </c>
       <c r="BO2">
-        <v>0.09879750944876775</v>
+        <v>0.09104757185101986</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.002745477534775426</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.001519394010052296</v>
       </c>
       <c r="BR2">
-        <v>0.05267813464114625</v>
+        <v>0.05321399320819872</v>
       </c>
       <c r="BS2">
-        <v>0.005748385261645557</v>
+        <v>0.01471563170083912</v>
       </c>
       <c r="BT2">
-        <v>0.01156156956713486</v>
+        <v>0.01948442066435729</v>
       </c>
       <c r="BU2">
-        <v>0.0201969327842578</v>
+        <v>0.02656835653181304</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>7.160932804801353E-05</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.001674590536225971</v>
       </c>
       <c r="BX2">
-        <v>0.126097825731043</v>
+        <v>0.1134431196516518</v>
       </c>
       <c r="BY2">
-        <v>0.1314127614220589</v>
+        <v>0.117803175231034</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.0002156388458244129</v>
       </c>
       <c r="CA2">
-        <v>0.02786963815817093</v>
+        <v>0.03286258544055288</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>0.007688891370320723</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>0.002041045108320439</v>
       </c>
       <c r="CD2">
-        <v>0.05148494026563025</v>
+        <v>0.05223516785701907</v>
       </c>
       <c r="CE2">
-        <v>0.04417926659437715</v>
+        <v>0.0462420298204977</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>1.720311603381619E-06</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>0.0001278056914039796</v>
       </c>
       <c r="CH2">
-        <v>0</v>
+        <v>0.0009197047972864573</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>3.780305299671755E-05</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>0.004115810140994457</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>0.008967983278044801</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>0.001287279611301227</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>0.0002237917371379108</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>0.009437534258913874</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>0.002782329462596364</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>0.00579760622165503</v>
       </c>
       <c r="CQ2">
-        <v>0.00700702956022289</v>
+        <v>0.01574814825710637</v>
       </c>
     </row>
     <row r="3" spans="1:95">
@@ -1330,28 +1330,28 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03289943153416811</v>
+        <v>0.03511638469060531</v>
       </c>
       <c r="E3">
-        <v>0.1333189429292199</v>
+        <v>0.1168894495024637</v>
       </c>
       <c r="F3">
-        <v>0.03017073702432297</v>
+        <v>0.03289436916886554</v>
       </c>
       <c r="G3">
-        <v>0.1809209359812886</v>
+        <v>0.1556524429580589</v>
       </c>
       <c r="H3">
-        <v>0.04195723774265393</v>
+        <v>0.04249228767848086</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004552674057279261</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01969334995376364</v>
+        <v>0.0243624808925998</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1360,58 +1360,58 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.00343273483729788</v>
+        <v>0.01112122612719413</v>
       </c>
       <c r="O3">
-        <v>0.07537673852244156</v>
+        <v>0.06970627194588676</v>
       </c>
       <c r="P3">
-        <v>0.05162068692852946</v>
+        <v>0.0503613745282864</v>
       </c>
       <c r="Q3">
-        <v>0.06092808893908711</v>
+        <v>0.05794052699841937</v>
       </c>
       <c r="R3">
-        <v>0.0450193770109441</v>
+        <v>0.04498583210396356</v>
       </c>
       <c r="S3">
-        <v>0.00343273483729788</v>
+        <v>0.01112122612719413</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.004234265349604959</v>
       </c>
       <c r="U3">
-        <v>0.06744891598729662</v>
+        <v>0.063250531054727</v>
       </c>
       <c r="V3">
-        <v>0.0371792784931822</v>
+        <v>0.03860152615268118</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0002448741943253727</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>6.576156178464361E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0776931731065492</v>
+        <v>0.07159257822986653</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.007226595380286697</v>
       </c>
       <c r="AA3">
-        <v>0.03732156380275289</v>
+        <v>0.03871739114425166</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.07970160621821809</v>
+        <v>0.07322807444697793</v>
       </c>
       <c r="AD3">
-        <v>0.01163132071784168</v>
+        <v>0.01779745353819835</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.004979850706123253</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.006189366049781256</v>
       </c>
       <c r="AI3">
-        <v>0.0102531454331442</v>
+        <v>0.01667518541209371</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1797,100 +1797,100 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.2650246457266198</v>
+        <v>0.2245626278314073</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.0006530154803320614</v>
       </c>
       <c r="BN4">
-        <v>0.1240685536533241</v>
+        <v>0.110445280589334</v>
       </c>
       <c r="BO4">
-        <v>0.1064505682605435</v>
+        <v>0.09618184772026532</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.009468969491606161</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.005617995031358443</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.006536087327453644</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.003600063255177633</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.009748774418871111</v>
       </c>
       <c r="BU4">
-        <v>0.04345492529001422</v>
+        <v>0.04518089020317261</v>
       </c>
       <c r="BV4">
-        <v>0</v>
+        <v>0.005037730024037925</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>0.003387769910763529</v>
       </c>
       <c r="BX4">
-        <v>0.1464831392280928</v>
+        <v>0.1285920169786556</v>
       </c>
       <c r="BY4">
-        <v>0.1718100969124959</v>
+        <v>0.1490965952635973</v>
       </c>
       <c r="BZ4">
-        <v>0</v>
+        <v>0.0001005094718342799</v>
       </c>
       <c r="CA4">
-        <v>0.01841581838406579</v>
+        <v>0.02490935446896897</v>
       </c>
       <c r="CB4">
-        <v>0</v>
+        <v>0.001174772623537722</v>
       </c>
       <c r="CC4">
-        <v>0</v>
+        <v>0.004407198604292494</v>
       </c>
       <c r="CD4">
-        <v>0.07820107729521258</v>
+        <v>0.07331120110623915</v>
       </c>
       <c r="CE4">
-        <v>0.02293375192319098</v>
+        <v>0.02856705086873057</v>
       </c>
       <c r="CF4">
-        <v>0</v>
+        <v>6.214247405632085E-05</v>
       </c>
       <c r="CG4">
-        <v>0</v>
+        <v>0.001415165002804376</v>
       </c>
       <c r="CH4">
-        <v>0</v>
+        <v>0.005650193846724185</v>
       </c>
       <c r="CI4">
-        <v>0</v>
+        <v>0.0003329009857485801</v>
       </c>
       <c r="CJ4">
-        <v>0</v>
+        <v>0.008014130367958609</v>
       </c>
       <c r="CK4">
-        <v>0.02186655322596052</v>
+        <v>0.02770305214035487</v>
       </c>
       <c r="CL4">
-        <v>0.001290870100479924</v>
+        <v>0.01104508197789903</v>
       </c>
       <c r="CM4">
-        <v>0</v>
+        <v>0.0004355545877461042</v>
       </c>
       <c r="CN4">
-        <v>0</v>
+        <v>0.005212403038703235</v>
       </c>
       <c r="CO4">
-        <v>0</v>
+        <v>4.581226680443836E-05</v>
       </c>
       <c r="CP4">
-        <v>0</v>
+        <v>0.002383494671754306</v>
       </c>
       <c r="CQ4">
-        <v>0</v>
+        <v>0.007120317969810154</v>
       </c>
     </row>
     <row r="5" spans="1:95">
@@ -2084,100 +2084,100 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.2336898113172486</v>
+        <v>0.1946858826647493</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.0003744380985460639</v>
       </c>
       <c r="BN5">
-        <v>0.1112025191799319</v>
+        <v>0.09788374338412408</v>
       </c>
       <c r="BO5">
-        <v>0.05439386486476471</v>
+        <v>0.05298766337937769</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.0006909553947776079</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.006497895364940896</v>
       </c>
       <c r="BR5">
-        <v>0.004580251324667567</v>
+        <v>0.01361978878734359</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.008420367084311625</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.0001131898803317824</v>
       </c>
       <c r="BU5">
-        <v>0.07928191251103889</v>
+        <v>0.07265677527366771</v>
       </c>
       <c r="BV5">
-        <v>0.0268160122460308</v>
+        <v>0.03119278912200217</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.009574862610043849</v>
       </c>
       <c r="BX5">
-        <v>0.02911833417568353</v>
+        <v>0.03301232226878142</v>
       </c>
       <c r="BY5">
-        <v>0.1341089092935659</v>
+        <v>0.1159867443363412</v>
       </c>
       <c r="BZ5">
-        <v>0.03339660334994096</v>
+        <v>0.03639345349684538</v>
       </c>
       <c r="CA5">
-        <v>0.03820619137785376</v>
+        <v>0.04019448789018063</v>
       </c>
       <c r="CB5">
-        <v>0.08190127956335513</v>
+        <v>0.07472687029986144</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.000199021193992762</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>0.002994017157601633</v>
       </c>
       <c r="CE5">
-        <v>0.07099183496069192</v>
+        <v>0.06610509772677396</v>
       </c>
       <c r="CF5">
-        <v>0.03644329304883618</v>
+        <v>0.03880126311881554</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>0.00159516210187491</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>0.007756226585107276</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>0.008401133576849948</v>
       </c>
       <c r="CJ5">
-        <v>0.05267719504149493</v>
+        <v>0.05163097315926316</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>0.00279260905267459</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>4.043047562738782E-06</v>
       </c>
       <c r="CM5">
-        <v>0.01319198774489511</v>
+        <v>0.02042567447436114</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>0.001006829314029825</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>0.007562205619066581</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>0.001415085243433223</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.0002984292923659752</v>
       </c>
     </row>
     <row r="6" spans="1:95">
@@ -2371,100 +2371,100 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.007016055360800513</v>
+        <v>0.01550700448997236</v>
       </c>
       <c r="BM6">
-        <v>0.2458643402691434</v>
+        <v>0.2029825174058745</v>
       </c>
       <c r="BN6">
-        <v>0.01843510058539267</v>
+        <v>0.02446998013500083</v>
       </c>
       <c r="BO6">
-        <v>0.1815487905155795</v>
+        <v>0.1525003015375685</v>
       </c>
       <c r="BP6">
-        <v>0.05583771516773576</v>
+        <v>0.05382783948036489</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>0.0007722525646665647</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>0.002891354193126894</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>0.008996847000093441</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.002824705733369806</v>
       </c>
       <c r="BU6">
-        <v>0.02259887692218544</v>
+        <v>0.02773818909328108</v>
       </c>
       <c r="BV6">
-        <v>0.02147335552144288</v>
+        <v>0.02685475088068094</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>0.001017583317427073</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>0.008992221356707814</v>
       </c>
       <c r="BY6">
-        <v>0.1830220567791936</v>
+        <v>0.1536566897801667</v>
       </c>
       <c r="BZ6">
-        <v>0.1037070184436039</v>
+        <v>0.09140115589757976</v>
       </c>
       <c r="CA6">
-        <v>0.01377828588351345</v>
+        <v>0.02081477815134771</v>
       </c>
       <c r="CB6">
-        <v>0.02963692780529697</v>
+        <v>0.033262458190486</v>
       </c>
       <c r="CC6">
-        <v>0</v>
+        <v>0.003632852920006376</v>
       </c>
       <c r="CD6">
-        <v>0.007984312017009425</v>
+        <v>0.01626700330397541</v>
       </c>
       <c r="CE6">
-        <v>0.09469208550262731</v>
+        <v>0.08432520315351627</v>
       </c>
       <c r="CF6">
-        <v>0.005342249046014223</v>
+        <v>0.01419320942752569</v>
       </c>
       <c r="CG6">
-        <v>0</v>
+        <v>0.0003056835997548678</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.003068539119435448</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>0.001562742108124948</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>8.42540960925189E-06</v>
       </c>
       <c r="CK6">
-        <v>0.0006055708662412183</v>
+        <v>0.01047532143175768</v>
       </c>
       <c r="CL6">
-        <v>0.008457259314219791</v>
+        <v>0.0166382265562618</v>
       </c>
       <c r="CM6">
-        <v>0</v>
+        <v>0.00292818303050507</v>
       </c>
       <c r="CN6">
-        <v>0</v>
+        <v>0.0008261915357717605</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.0084821388396945</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.001573908999861026</v>
       </c>
       <c r="CQ6">
-        <v>0</v>
+        <v>0.007201741356485184</v>
       </c>
     </row>
     <row r="7" spans="1:95">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2484888231808974</v>
+        <v>0.2428334013726161</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1490317169357672</v>
+        <v>0.1464698228824668</v>
       </c>
       <c r="H7">
-        <v>0.1256590725559859</v>
+        <v>0.1238241645052538</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2499,16 +2499,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05096425697033304</v>
+        <v>0.05145266691960269</v>
       </c>
       <c r="L7">
-        <v>0.02512826166039567</v>
+        <v>0.02642027802439309</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.04305967494109936</v>
+        <v>0.04379395011631565</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2517,28 +2517,28 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.08899168090783478</v>
+        <v>0.08829728053974865</v>
       </c>
       <c r="R7">
-        <v>0.1836038910799948</v>
+        <v>0.1799666592825858</v>
       </c>
       <c r="S7">
-        <v>0.005858707998287906</v>
+        <v>0.007750087256806943</v>
       </c>
       <c r="T7">
-        <v>0.02486296320325566</v>
+        <v>0.02616323144760131</v>
       </c>
       <c r="U7">
-        <v>0.02106415679012208</v>
+        <v>0.02248258364091124</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.003420896642976908</v>
+        <v>0.005388101927144379</v>
       </c>
       <c r="X7">
-        <v>0.01763022227735843</v>
+        <v>0.01915545870792602</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.01195508606119301</v>
+        <v>0.01365684272305242</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.0002805887944979389</v>
+        <v>0.002345470653575108</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -2765,25 +2765,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06052788886188503</v>
+        <v>0.06007217221338149</v>
       </c>
       <c r="E8">
-        <v>0.1518600903910447</v>
+        <v>0.1474991059663493</v>
       </c>
       <c r="F8">
-        <v>0.01266332645916883</v>
+        <v>0.01425424757963635</v>
       </c>
       <c r="G8">
-        <v>0.07518470611361956</v>
+        <v>0.07410227955167485</v>
       </c>
       <c r="H8">
-        <v>0.04459923580997962</v>
+        <v>0.04482461142072582</v>
       </c>
       <c r="I8">
-        <v>0.0006234335485138615</v>
+        <v>0.002729167681539394</v>
       </c>
       <c r="J8">
-        <v>0.05744225320657042</v>
+        <v>0.05711847505612139</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2795,40 +2795,40 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.01567906160305547</v>
+        <v>0.01714103309697545</v>
       </c>
       <c r="O8">
-        <v>0.08442719849353091</v>
+        <v>0.08294957278978686</v>
       </c>
       <c r="P8">
-        <v>0.004413657739004148</v>
+        <v>0.006357325917767766</v>
       </c>
       <c r="Q8">
-        <v>0.04138809181859396</v>
+        <v>0.04175077253032655</v>
       </c>
       <c r="R8">
-        <v>0.1798170515715354</v>
+        <v>0.1742606572279894</v>
       </c>
       <c r="S8">
-        <v>0.07378727926003104</v>
+        <v>0.0727646051837325</v>
       </c>
       <c r="T8">
-        <v>0.03492215955162573</v>
+        <v>0.03556131664849362</v>
       </c>
       <c r="U8">
-        <v>0.03129502131706141</v>
+        <v>0.03208927098621022</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02784980900249908</v>
+        <v>0.02879137228512631</v>
       </c>
       <c r="X8">
-        <v>0.08395725512618586</v>
+        <v>0.08249972370089345</v>
       </c>
       <c r="Y8">
-        <v>0.01172578323751449</v>
+        <v>0.01335679270876095</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0009989615950231768</v>
+        <v>0.003088638548274926</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.509762637679505E-05</v>
       </c>
       <c r="AH8">
-        <v>0.006837735293557259</v>
+        <v>0.008677752494874943</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>9.600878498156614E-05</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -3055,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2258516948112772</v>
+        <v>0.2192325845610575</v>
       </c>
       <c r="F9">
-        <v>0.01891796906551207</v>
+        <v>0.02046973801381873</v>
       </c>
       <c r="G9">
-        <v>0.134379544644263</v>
+        <v>0.1313722569055772</v>
       </c>
       <c r="H9">
-        <v>0.06021662799331565</v>
+        <v>0.06013769922937599</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3073,46 +3073,46 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.03530108992974357</v>
+        <v>0.03620596335150393</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.005559474767292994</v>
+        <v>0.007638710385382854</v>
       </c>
       <c r="N9">
-        <v>0.05961272261681206</v>
+        <v>0.05955763935152646</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.001680170161784321</v>
       </c>
       <c r="P9">
-        <v>0.01253177333891855</v>
+        <v>0.01433570434361348</v>
       </c>
       <c r="Q9">
-        <v>0.1513099094665539</v>
+        <v>0.1476341180064405</v>
       </c>
       <c r="R9">
-        <v>0.1937974997996075</v>
+        <v>0.1884440650902038</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.002029434223424948</v>
       </c>
       <c r="T9">
-        <v>0.01956074345822975</v>
+        <v>0.02108713214579893</v>
       </c>
       <c r="U9">
-        <v>0.01075026104912958</v>
+        <v>0.01262453593642796</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.01349901733409193</v>
+        <v>0.01526475623737092</v>
       </c>
       <c r="X9">
-        <v>0.02873175868611223</v>
+        <v>0.02989602535956885</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.02997991303913995</v>
+        <v>0.03109489572854346</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.00129457096858021</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -3339,25 +3339,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2620629010695515</v>
+        <v>0.2332731496566092</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1209020916597717</v>
+        <v>0.1110786109671662</v>
       </c>
       <c r="G10">
-        <v>0.04911733586027241</v>
+        <v>0.04893880632499743</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001364329280613013</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03916408236525027</v>
+        <v>0.04032286522655362</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3366,43 +3366,43 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.04301189956241915</v>
+        <v>0.04365369231188471</v>
       </c>
       <c r="N10">
-        <v>0.005971737132668675</v>
+        <v>0.01159022101266288</v>
       </c>
       <c r="O10">
-        <v>0.0133938830900695</v>
+        <v>0.01801513246749529</v>
       </c>
       <c r="P10">
-        <v>0.09112554455468461</v>
+        <v>0.08530282055845444</v>
       </c>
       <c r="Q10">
-        <v>0.1602897882528625</v>
+        <v>0.1451742033299217</v>
       </c>
       <c r="R10">
-        <v>0.02414590425514662</v>
+        <v>0.02732251935298521</v>
       </c>
       <c r="S10">
-        <v>0.01617949506410403</v>
+        <v>0.02042647150386211</v>
       </c>
       <c r="T10">
-        <v>0.05621348866565012</v>
+        <v>0.05508152484686255</v>
       </c>
       <c r="U10">
-        <v>0.004406858554270028</v>
+        <v>0.01023559845990238</v>
       </c>
       <c r="V10">
-        <v>0.009039939186467578</v>
+        <v>0.01424618151712272</v>
       </c>
       <c r="W10">
-        <v>0.03063726956273935</v>
+        <v>0.03294170921554343</v>
       </c>
       <c r="X10">
-        <v>0.02400532227364516</v>
+        <v>0.02720082587127845</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.005542106084164593</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0360672111821452</v>
+        <v>0.03764208755757876</v>
       </c>
       <c r="AC10">
-        <v>0.007893868620832155</v>
+        <v>0.0132540962162597</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.005456880892937637</v>
       </c>
       <c r="AI10">
-        <v>0.006371379087449277</v>
+        <v>0.01193616734514388</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -3629,67 +3629,67 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1021296662860383</v>
+        <v>0.121999165783371</v>
       </c>
       <c r="F11">
-        <v>0.02145598860166551</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1152099516089586</v>
+        <v>0.1439854502024428</v>
       </c>
       <c r="H11">
-        <v>0.1591976108641235</v>
+        <v>0.2179230718549768</v>
       </c>
       <c r="I11">
-        <v>0.008332110544206385</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.04091859796809001</v>
+        <v>0.01911119932017558</v>
       </c>
       <c r="L11">
-        <v>0.01476305415777586</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.03525858341866122</v>
+        <v>0.009597439747839016</v>
       </c>
       <c r="O11">
-        <v>0.02954878507900297</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.04570682945809431</v>
+        <v>0.02715960321998341</v>
       </c>
       <c r="R11">
-        <v>0.1980020591360706</v>
+        <v>0.2831483796651366</v>
       </c>
       <c r="S11">
-        <v>0.1153527339632298</v>
+        <v>0.1442254490536553</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.04423756507095466</v>
+        <v>0.02468995795575811</v>
       </c>
       <c r="V11">
-        <v>0.002404090658983545</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03440357684343463</v>
+        <v>0.008160283196661318</v>
       </c>
       <c r="Y11">
-        <v>0.008884084894818008</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01277737954399187</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.01141733190190064</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -4393,97 +4393,97 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.283583469067571</v>
+        <v>0.2426349288889093</v>
       </c>
       <c r="BM2">
-        <v>0.283583469067571</v>
+        <v>0.2426386812999475</v>
       </c>
       <c r="BN2">
-        <v>0.4229660065655447</v>
+        <v>0.3669797844884084</v>
       </c>
       <c r="BO2">
-        <v>0.5217635160143125</v>
+        <v>0.4580273563394283</v>
       </c>
       <c r="BP2">
-        <v>0.5217635160143125</v>
+        <v>0.4607728338742037</v>
       </c>
       <c r="BQ2">
-        <v>0.5217635160143125</v>
+        <v>0.462292227884256</v>
       </c>
       <c r="BR2">
-        <v>0.5744416506554587</v>
+        <v>0.5155062210924547</v>
       </c>
       <c r="BS2">
-        <v>0.5801900359171043</v>
+        <v>0.5302218527932938</v>
       </c>
       <c r="BT2">
-        <v>0.5917516054842391</v>
+        <v>0.5497062734576511</v>
       </c>
       <c r="BU2">
-        <v>0.6119485382684969</v>
+        <v>0.5762746299894641</v>
       </c>
       <c r="BV2">
-        <v>0.6119485382684969</v>
+        <v>0.5763462393175122</v>
       </c>
       <c r="BW2">
-        <v>0.6119485382684969</v>
+        <v>0.5780208298537381</v>
       </c>
       <c r="BX2">
-        <v>0.7380463639995399</v>
+        <v>0.69146394950539</v>
       </c>
       <c r="BY2">
-        <v>0.8694591254215989</v>
+        <v>0.809267124736424</v>
       </c>
       <c r="BZ2">
-        <v>0.8694591254215989</v>
+        <v>0.8094827635822485</v>
       </c>
       <c r="CA2">
-        <v>0.8973287635797698</v>
+        <v>0.8423453490228013</v>
       </c>
       <c r="CB2">
-        <v>0.8973287635797698</v>
+        <v>0.850034240393122</v>
       </c>
       <c r="CC2">
-        <v>0.8973287635797698</v>
+        <v>0.8520752855014425</v>
       </c>
       <c r="CD2">
-        <v>0.9488137038454</v>
+        <v>0.9043104533584616</v>
       </c>
       <c r="CE2">
-        <v>0.9929929704397771</v>
+        <v>0.9505524831789594</v>
       </c>
       <c r="CF2">
-        <v>0.9929929704397771</v>
+        <v>0.9505542034905627</v>
       </c>
       <c r="CG2">
-        <v>0.9929929704397771</v>
+        <v>0.9506820091819668</v>
       </c>
       <c r="CH2">
-        <v>0.9929929704397771</v>
+        <v>0.9516017139792532</v>
       </c>
       <c r="CI2">
-        <v>0.9929929704397771</v>
+        <v>0.9516395170322499</v>
       </c>
       <c r="CJ2">
-        <v>0.9929929704397771</v>
+        <v>0.9557553271732444</v>
       </c>
       <c r="CK2">
-        <v>0.9929929704397771</v>
+        <v>0.9647233104512892</v>
       </c>
       <c r="CL2">
-        <v>0.9929929704397771</v>
+        <v>0.9660105900625905</v>
       </c>
       <c r="CM2">
-        <v>0.9929929704397771</v>
+        <v>0.9662343817997284</v>
       </c>
       <c r="CN2">
-        <v>0.9929929704397771</v>
+        <v>0.9756719160586423</v>
       </c>
       <c r="CO2">
-        <v>0.9929929704397771</v>
+        <v>0.9784542455212387</v>
       </c>
       <c r="CP2">
-        <v>0.9929929704397771</v>
+        <v>0.9842518517428938</v>
       </c>
       <c r="CQ2">
         <v>1</v>
@@ -4500,280 +4500,280 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03289943153416811</v>
+        <v>0.03511638469060531</v>
       </c>
       <c r="E3">
-        <v>0.166218374463388</v>
+        <v>0.152005834193069</v>
       </c>
       <c r="F3">
-        <v>0.196389111487711</v>
+        <v>0.1849002033619346</v>
       </c>
       <c r="G3">
-        <v>0.3773100474689995</v>
+        <v>0.3405526463199934</v>
       </c>
       <c r="H3">
-        <v>0.4192672852116535</v>
+        <v>0.3830449339984742</v>
       </c>
       <c r="I3">
-        <v>0.4192672852116535</v>
+        <v>0.3875976080557535</v>
       </c>
       <c r="J3">
-        <v>0.4192672852116535</v>
+        <v>0.3875976080557535</v>
       </c>
       <c r="K3">
-        <v>0.4389606351654171</v>
+        <v>0.4119600889483533</v>
       </c>
       <c r="L3">
-        <v>0.4389606351654171</v>
+        <v>0.4119600889483533</v>
       </c>
       <c r="M3">
-        <v>0.4389606351654171</v>
+        <v>0.4119600889483533</v>
       </c>
       <c r="N3">
-        <v>0.442393370002715</v>
+        <v>0.4230813150755474</v>
       </c>
       <c r="O3">
-        <v>0.5177701085251566</v>
+        <v>0.4927875870214342</v>
       </c>
       <c r="P3">
-        <v>0.5693907954536861</v>
+        <v>0.5431489615497206</v>
       </c>
       <c r="Q3">
-        <v>0.6303188843927732</v>
+        <v>0.6010894885481399</v>
       </c>
       <c r="R3">
-        <v>0.6753382614037172</v>
+        <v>0.6460753206521035</v>
       </c>
       <c r="S3">
-        <v>0.6787709962410151</v>
+        <v>0.6571965467792976</v>
       </c>
       <c r="T3">
-        <v>0.6787709962410151</v>
+        <v>0.6614308121289025</v>
       </c>
       <c r="U3">
-        <v>0.7462199122283117</v>
+        <v>0.7246813431836295</v>
       </c>
       <c r="V3">
-        <v>0.7833991907214939</v>
+        <v>0.7632828693363107</v>
       </c>
       <c r="W3">
-        <v>0.7833991907214939</v>
+        <v>0.7635277435306361</v>
       </c>
       <c r="X3">
-        <v>0.7833991907214939</v>
+        <v>0.7635935050924207</v>
       </c>
       <c r="Y3">
-        <v>0.8610923638280431</v>
+        <v>0.8351860833222873</v>
       </c>
       <c r="Z3">
-        <v>0.8610923638280431</v>
+        <v>0.842412678702574</v>
       </c>
       <c r="AA3">
-        <v>0.898413927630796</v>
+        <v>0.8811300698468256</v>
       </c>
       <c r="AB3">
-        <v>0.898413927630796</v>
+        <v>0.8811300698468256</v>
       </c>
       <c r="AC3">
-        <v>0.9781155338490141</v>
+        <v>0.9543581442938036</v>
       </c>
       <c r="AD3">
-        <v>0.9897468545668557</v>
+        <v>0.972155597832002</v>
       </c>
       <c r="AE3">
-        <v>0.9897468545668557</v>
+        <v>0.9771354485381253</v>
       </c>
       <c r="AF3">
-        <v>0.9897468545668557</v>
+        <v>0.9771354485381253</v>
       </c>
       <c r="AG3">
-        <v>0.9897468545668557</v>
+        <v>0.9771354485381253</v>
       </c>
       <c r="AH3">
-        <v>0.9897468545668557</v>
+        <v>0.9833248145879065</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:95">
@@ -4967,97 +4967,97 @@
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.2650246457266198</v>
+        <v>0.2245626278314073</v>
       </c>
       <c r="BM4">
-        <v>0.2650246457266198</v>
+        <v>0.2252156433117393</v>
       </c>
       <c r="BN4">
-        <v>0.3890931993799439</v>
+        <v>0.3356609239010734</v>
       </c>
       <c r="BO4">
-        <v>0.4955437676404874</v>
+        <v>0.4318427716213387</v>
       </c>
       <c r="BP4">
-        <v>0.4955437676404874</v>
+        <v>0.4413117411129449</v>
       </c>
       <c r="BQ4">
-        <v>0.4955437676404874</v>
+        <v>0.4469297361443033</v>
       </c>
       <c r="BR4">
-        <v>0.4955437676404874</v>
+        <v>0.453465823471757</v>
       </c>
       <c r="BS4">
-        <v>0.4955437676404874</v>
+        <v>0.4570658867269346</v>
       </c>
       <c r="BT4">
-        <v>0.4955437676404874</v>
+        <v>0.4668146611458057</v>
       </c>
       <c r="BU4">
-        <v>0.5389986929305016</v>
+        <v>0.5119955513489783</v>
       </c>
       <c r="BV4">
-        <v>0.5389986929305016</v>
+        <v>0.5170332813730163</v>
       </c>
       <c r="BW4">
-        <v>0.5389986929305016</v>
+        <v>0.5204210512837798</v>
       </c>
       <c r="BX4">
-        <v>0.6854818321585944</v>
+        <v>0.6490130682624354</v>
       </c>
       <c r="BY4">
-        <v>0.8572919290710903</v>
+        <v>0.7981096635260327</v>
       </c>
       <c r="BZ4">
-        <v>0.8572919290710903</v>
+        <v>0.798210172997867</v>
       </c>
       <c r="CA4">
-        <v>0.8757077474551561</v>
+        <v>0.8231195274668359</v>
       </c>
       <c r="CB4">
-        <v>0.8757077474551561</v>
+        <v>0.8242943000903736</v>
       </c>
       <c r="CC4">
-        <v>0.8757077474551561</v>
+        <v>0.8287014986946661</v>
       </c>
       <c r="CD4">
-        <v>0.9539088247503686</v>
+        <v>0.9020126998009053</v>
       </c>
       <c r="CE4">
-        <v>0.9768425766735597</v>
+        <v>0.9305797506696358</v>
       </c>
       <c r="CF4">
-        <v>0.9768425766735597</v>
+        <v>0.9306418931436922</v>
       </c>
       <c r="CG4">
-        <v>0.9768425766735597</v>
+        <v>0.9320570581464965</v>
       </c>
       <c r="CH4">
-        <v>0.9768425766735597</v>
+        <v>0.9377072519932207</v>
       </c>
       <c r="CI4">
-        <v>0.9768425766735597</v>
+        <v>0.9380401529789693</v>
       </c>
       <c r="CJ4">
-        <v>0.9768425766735597</v>
+        <v>0.9460542833469279</v>
       </c>
       <c r="CK4">
-        <v>0.9987091298995202</v>
+        <v>0.9737573354872827</v>
       </c>
       <c r="CL4">
-        <v>1</v>
+        <v>0.9848024174651817</v>
       </c>
       <c r="CM4">
-        <v>1</v>
+        <v>0.9852379720529278</v>
       </c>
       <c r="CN4">
-        <v>1</v>
+        <v>0.990450375091631</v>
       </c>
       <c r="CO4">
-        <v>1</v>
+        <v>0.9904961873584355</v>
       </c>
       <c r="CP4">
-        <v>1</v>
+        <v>0.9928796820301898</v>
       </c>
       <c r="CQ4">
         <v>1</v>
@@ -5254,97 +5254,97 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.2336898113172486</v>
+        <v>0.1946858826647493</v>
       </c>
       <c r="BM5">
-        <v>0.2336898113172486</v>
+        <v>0.1950603207632954</v>
       </c>
       <c r="BN5">
-        <v>0.3448923304971805</v>
+        <v>0.2929440641474195</v>
       </c>
       <c r="BO5">
-        <v>0.3992861953619452</v>
+        <v>0.3459317275267971</v>
       </c>
       <c r="BP5">
-        <v>0.3992861953619452</v>
+        <v>0.3466226829215747</v>
       </c>
       <c r="BQ5">
-        <v>0.3992861953619452</v>
+        <v>0.3531205782865156</v>
       </c>
       <c r="BR5">
-        <v>0.4038664466866128</v>
+        <v>0.3667403670738592</v>
       </c>
       <c r="BS5">
-        <v>0.4038664466866128</v>
+        <v>0.3751607341581709</v>
       </c>
       <c r="BT5">
-        <v>0.4038664466866128</v>
+        <v>0.3752739240385026</v>
       </c>
       <c r="BU5">
-        <v>0.4831483591976516</v>
+        <v>0.4479306993121703</v>
       </c>
       <c r="BV5">
-        <v>0.5099643714436825</v>
+        <v>0.4791234884341725</v>
       </c>
       <c r="BW5">
-        <v>0.5099643714436825</v>
+        <v>0.4886983510442164</v>
       </c>
       <c r="BX5">
-        <v>0.539082705619366</v>
+        <v>0.5217106733129978</v>
       </c>
       <c r="BY5">
-        <v>0.673191614912932</v>
+        <v>0.637697417649339</v>
       </c>
       <c r="BZ5">
-        <v>0.706588218262873</v>
+        <v>0.6740908711461844</v>
       </c>
       <c r="CA5">
-        <v>0.7447944096407267</v>
+        <v>0.714285359036365</v>
       </c>
       <c r="CB5">
-        <v>0.8266956892040819</v>
+        <v>0.7890122293362265</v>
       </c>
       <c r="CC5">
-        <v>0.8266956892040819</v>
+        <v>0.7892112505302192</v>
       </c>
       <c r="CD5">
-        <v>0.8266956892040819</v>
+        <v>0.7922052676878208</v>
       </c>
       <c r="CE5">
-        <v>0.8976875241647738</v>
+        <v>0.8583103654145948</v>
       </c>
       <c r="CF5">
-        <v>0.93413081721361</v>
+        <v>0.8971116285334104</v>
       </c>
       <c r="CG5">
-        <v>0.93413081721361</v>
+        <v>0.8987067906352854</v>
       </c>
       <c r="CH5">
-        <v>0.93413081721361</v>
+        <v>0.9064630172203927</v>
       </c>
       <c r="CI5">
-        <v>0.93413081721361</v>
+        <v>0.9148641507972426</v>
       </c>
       <c r="CJ5">
-        <v>0.9868080122551049</v>
+        <v>0.9664951239565057</v>
       </c>
       <c r="CK5">
-        <v>0.9868080122551049</v>
+        <v>0.9692877330091804</v>
       </c>
       <c r="CL5">
-        <v>0.9868080122551049</v>
+        <v>0.9692917760567431</v>
       </c>
       <c r="CM5">
-        <v>1</v>
+        <v>0.9897174505311043</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>0.9907242798451341</v>
       </c>
       <c r="CO5">
-        <v>1</v>
+        <v>0.9982864854642007</v>
       </c>
       <c r="CP5">
-        <v>1</v>
+        <v>0.999701570707634</v>
       </c>
       <c r="CQ5">
         <v>1</v>
@@ -5541,97 +5541,97 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.007016055360800513</v>
+        <v>0.01550700448997236</v>
       </c>
       <c r="BM6">
-        <v>0.2528803956299439</v>
+        <v>0.2184895218958469</v>
       </c>
       <c r="BN6">
-        <v>0.2713154962153366</v>
+        <v>0.2429595020308477</v>
       </c>
       <c r="BO6">
-        <v>0.4528642867309161</v>
+        <v>0.3954598035684163</v>
       </c>
       <c r="BP6">
-        <v>0.5087020018986518</v>
+        <v>0.4492876430487812</v>
       </c>
       <c r="BQ6">
-        <v>0.5087020018986518</v>
+        <v>0.4500598956134477</v>
       </c>
       <c r="BR6">
-        <v>0.5087020018986518</v>
+        <v>0.4529512498065746</v>
       </c>
       <c r="BS6">
-        <v>0.5087020018986518</v>
+        <v>0.4619480968066681</v>
       </c>
       <c r="BT6">
-        <v>0.5087020018986518</v>
+        <v>0.4647728025400379</v>
       </c>
       <c r="BU6">
-        <v>0.5313008788208372</v>
+        <v>0.492510991633319</v>
       </c>
       <c r="BV6">
-        <v>0.5527742343422801</v>
+        <v>0.5193657425139999</v>
       </c>
       <c r="BW6">
-        <v>0.5527742343422801</v>
+        <v>0.520383325831427</v>
       </c>
       <c r="BX6">
-        <v>0.5527742343422801</v>
+        <v>0.5293755471881348</v>
       </c>
       <c r="BY6">
-        <v>0.7357962911214737</v>
+        <v>0.6830322369683015</v>
       </c>
       <c r="BZ6">
-        <v>0.8395033095650776</v>
+        <v>0.7744333928658813</v>
       </c>
       <c r="CA6">
-        <v>0.8532815954485911</v>
+        <v>0.795248171017229</v>
       </c>
       <c r="CB6">
-        <v>0.882918523253888</v>
+        <v>0.828510629207715</v>
       </c>
       <c r="CC6">
-        <v>0.882918523253888</v>
+        <v>0.8321434821277214</v>
       </c>
       <c r="CD6">
-        <v>0.8909028352708974</v>
+        <v>0.8484104854316968</v>
       </c>
       <c r="CE6">
-        <v>0.9855949207735247</v>
+        <v>0.9327356885852132</v>
       </c>
       <c r="CF6">
-        <v>0.9909371698195389</v>
+        <v>0.9469288980127388</v>
       </c>
       <c r="CG6">
-        <v>0.9909371698195389</v>
+        <v>0.9472345816124937</v>
       </c>
       <c r="CH6">
-        <v>0.9909371698195389</v>
+        <v>0.9503031207319292</v>
       </c>
       <c r="CI6">
-        <v>0.9909371698195389</v>
+        <v>0.9518658628400541</v>
       </c>
       <c r="CJ6">
-        <v>0.9909371698195389</v>
+        <v>0.9518742882496634</v>
       </c>
       <c r="CK6">
-        <v>0.9915427406857802</v>
+        <v>0.962349609681421</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0.9789878362376828</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0.9819160192681878</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0.9827422108039596</v>
       </c>
       <c r="CO6">
-        <v>1</v>
+        <v>0.9912243496436541</v>
       </c>
       <c r="CP6">
-        <v>1</v>
+        <v>0.9927982586435151</v>
       </c>
       <c r="CQ6">
         <v>1</v>
@@ -5651,277 +5651,277 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2484888231808974</v>
+        <v>0.2428334013726161</v>
       </c>
       <c r="F7">
-        <v>0.2484888231808974</v>
+        <v>0.2428334013726161</v>
       </c>
       <c r="G7">
-        <v>0.3975205401166646</v>
+        <v>0.3893032242550828</v>
       </c>
       <c r="H7">
-        <v>0.5231796126726505</v>
+        <v>0.5131273887603366</v>
       </c>
       <c r="I7">
-        <v>0.5231796126726505</v>
+        <v>0.5131273887603366</v>
       </c>
       <c r="J7">
-        <v>0.5231796126726505</v>
+        <v>0.5131273887603366</v>
       </c>
       <c r="K7">
-        <v>0.5741438696429835</v>
+        <v>0.5645800556799393</v>
       </c>
       <c r="L7">
-        <v>0.5992721313033792</v>
+        <v>0.5910003337043324</v>
       </c>
       <c r="M7">
-        <v>0.5992721313033792</v>
+        <v>0.5910003337043324</v>
       </c>
       <c r="N7">
-        <v>0.6423318062444786</v>
+        <v>0.634794283820648</v>
       </c>
       <c r="O7">
-        <v>0.6423318062444786</v>
+        <v>0.634794283820648</v>
       </c>
       <c r="P7">
-        <v>0.6423318062444786</v>
+        <v>0.634794283820648</v>
       </c>
       <c r="Q7">
-        <v>0.7313234871523134</v>
+        <v>0.7230915643603966</v>
       </c>
       <c r="R7">
-        <v>0.9149273782323082</v>
+        <v>0.9030582236429824</v>
       </c>
       <c r="S7">
-        <v>0.9207860862305961</v>
+        <v>0.9108083108997893</v>
       </c>
       <c r="T7">
-        <v>0.9456490494338518</v>
+        <v>0.9369715423473907</v>
       </c>
       <c r="U7">
-        <v>0.9667132062239738</v>
+        <v>0.9594541259883019</v>
       </c>
       <c r="V7">
-        <v>0.9667132062239738</v>
+        <v>0.9594541259883019</v>
       </c>
       <c r="W7">
-        <v>0.9701341028669508</v>
+        <v>0.9648422279154463</v>
       </c>
       <c r="X7">
-        <v>0.9877643251443092</v>
+        <v>0.9839976866233723</v>
       </c>
       <c r="Y7">
-        <v>0.9877643251443092</v>
+        <v>0.9839976866233723</v>
       </c>
       <c r="Z7">
-        <v>0.9877643251443092</v>
+        <v>0.9839976866233723</v>
       </c>
       <c r="AA7">
-        <v>0.9877643251443092</v>
+        <v>0.9839976866233723</v>
       </c>
       <c r="AB7">
-        <v>0.9877643251443092</v>
+        <v>0.9839976866233723</v>
       </c>
       <c r="AC7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AD7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AE7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AF7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AG7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AH7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AI7">
-        <v>0.9997194112055022</v>
+        <v>0.9976545293464247</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:95">
@@ -5935,280 +5935,280 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06052788886188503</v>
+        <v>0.06007217221338149</v>
       </c>
       <c r="E8">
-        <v>0.2123879792529298</v>
+        <v>0.2075712781797308</v>
       </c>
       <c r="F8">
-        <v>0.2250513057120986</v>
+        <v>0.2218255257593671</v>
       </c>
       <c r="G8">
-        <v>0.3002360118257181</v>
+        <v>0.295927805311042</v>
       </c>
       <c r="H8">
-        <v>0.3448352476356977</v>
+        <v>0.3407524167317678</v>
       </c>
       <c r="I8">
-        <v>0.3454586811842116</v>
+        <v>0.3434815844133072</v>
       </c>
       <c r="J8">
-        <v>0.402900934390782</v>
+        <v>0.4006000594694286</v>
       </c>
       <c r="K8">
-        <v>0.402900934390782</v>
+        <v>0.4006000594694286</v>
       </c>
       <c r="L8">
-        <v>0.402900934390782</v>
+        <v>0.4006000594694286</v>
       </c>
       <c r="M8">
-        <v>0.402900934390782</v>
+        <v>0.4006000594694286</v>
       </c>
       <c r="N8">
-        <v>0.4185799959938375</v>
+        <v>0.417741092566404</v>
       </c>
       <c r="O8">
-        <v>0.5030071944873684</v>
+        <v>0.5006906653561909</v>
       </c>
       <c r="P8">
-        <v>0.5074208522263726</v>
+        <v>0.5070479912739586</v>
       </c>
       <c r="Q8">
-        <v>0.5488089440449665</v>
+        <v>0.5487987638042852</v>
       </c>
       <c r="R8">
-        <v>0.728625995616502</v>
+        <v>0.7230594210322745</v>
       </c>
       <c r="S8">
-        <v>0.802413274876533</v>
+        <v>0.795824026216007</v>
       </c>
       <c r="T8">
-        <v>0.8373354344281587</v>
+        <v>0.8313853428645006</v>
       </c>
       <c r="U8">
-        <v>0.8686304557452201</v>
+        <v>0.8634746138507108</v>
       </c>
       <c r="V8">
-        <v>0.8686304557452201</v>
+        <v>0.8634746138507108</v>
       </c>
       <c r="W8">
-        <v>0.8964802647477192</v>
+        <v>0.8922659861358371</v>
       </c>
       <c r="X8">
-        <v>0.9804375198739052</v>
+        <v>0.9747657098367305</v>
       </c>
       <c r="Y8">
-        <v>0.9921633031114196</v>
+        <v>0.9881225025454915</v>
       </c>
       <c r="Z8">
-        <v>0.9921633031114196</v>
+        <v>0.9881225025454915</v>
       </c>
       <c r="AA8">
-        <v>0.9921633031114196</v>
+        <v>0.9881225025454915</v>
       </c>
       <c r="AB8">
-        <v>0.9921633031114196</v>
+        <v>0.9881225025454915</v>
       </c>
       <c r="AC8">
-        <v>0.9921633031114196</v>
+        <v>0.9881225025454915</v>
       </c>
       <c r="AD8">
-        <v>0.9921633031114196</v>
+        <v>0.9881225025454915</v>
       </c>
       <c r="AE8">
-        <v>0.9931622647064429</v>
+        <v>0.9912111410937664</v>
       </c>
       <c r="AF8">
-        <v>0.9931622647064429</v>
+        <v>0.9912111410937664</v>
       </c>
       <c r="AG8">
-        <v>0.9931622647064429</v>
+        <v>0.9912262387201431</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999039912150181</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CB8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CC8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CD8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CE8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CF8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CG8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CH8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CK8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CL8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CM8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CN8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CO8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CP8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CQ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:95">
@@ -6225,85 +6225,85 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2258516948112772</v>
+        <v>0.2192325845610575</v>
       </c>
       <c r="F9">
-        <v>0.2447696638767893</v>
+        <v>0.2397023225748762</v>
       </c>
       <c r="G9">
-        <v>0.3791492085210523</v>
+        <v>0.3710745794804534</v>
       </c>
       <c r="H9">
-        <v>0.439365836514368</v>
+        <v>0.4312122787098294</v>
       </c>
       <c r="I9">
-        <v>0.439365836514368</v>
+        <v>0.4312122787098294</v>
       </c>
       <c r="J9">
-        <v>0.439365836514368</v>
+        <v>0.4312122787098294</v>
       </c>
       <c r="K9">
-        <v>0.4746669264441116</v>
+        <v>0.4674182420613334</v>
       </c>
       <c r="L9">
-        <v>0.4746669264441116</v>
+        <v>0.4674182420613334</v>
       </c>
       <c r="M9">
-        <v>0.4802264012114046</v>
+        <v>0.4750569524467162</v>
       </c>
       <c r="N9">
-        <v>0.5398391238282166</v>
+        <v>0.5346145917982427</v>
       </c>
       <c r="O9">
-        <v>0.5398391238282166</v>
+        <v>0.536294761960027</v>
       </c>
       <c r="P9">
-        <v>0.5523708971671352</v>
+        <v>0.5506304663036405</v>
       </c>
       <c r="Q9">
-        <v>0.703680806633689</v>
+        <v>0.698264584310081</v>
       </c>
       <c r="R9">
-        <v>0.8974783064332965</v>
+        <v>0.8867086494002848</v>
       </c>
       <c r="S9">
-        <v>0.8974783064332965</v>
+        <v>0.8887380836237098</v>
       </c>
       <c r="T9">
-        <v>0.9170390498915263</v>
+        <v>0.9098252157695087</v>
       </c>
       <c r="U9">
-        <v>0.9277893109406559</v>
+        <v>0.9224497517059367</v>
       </c>
       <c r="V9">
-        <v>0.9277893109406559</v>
+        <v>0.9224497517059367</v>
       </c>
       <c r="W9">
-        <v>0.9412883282747478</v>
+        <v>0.9377145079433076</v>
       </c>
       <c r="X9">
-        <v>0.9700200869608601</v>
+        <v>0.9676105333028764</v>
       </c>
       <c r="Y9">
-        <v>0.9700200869608601</v>
+        <v>0.9676105333028764</v>
       </c>
       <c r="Z9">
-        <v>0.9700200869608601</v>
+        <v>0.9676105333028764</v>
       </c>
       <c r="AA9">
-        <v>0.9700200869608601</v>
+        <v>0.9676105333028764</v>
       </c>
       <c r="AB9">
-        <v>0.9700200869608601</v>
+        <v>0.9676105333028764</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.9987054290314198</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9987054290314198</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9987054290314198</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -6509,280 +6509,280 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2620629010695515</v>
+        <v>0.2332731496566092</v>
       </c>
       <c r="E10">
-        <v>0.2620629010695515</v>
+        <v>0.2332731496566092</v>
       </c>
       <c r="F10">
-        <v>0.3829649927293232</v>
+        <v>0.3443517606237754</v>
       </c>
       <c r="G10">
-        <v>0.4320823285895956</v>
+        <v>0.3932905669487728</v>
       </c>
       <c r="H10">
-        <v>0.4320823285895956</v>
+        <v>0.3946548962293858</v>
       </c>
       <c r="I10">
-        <v>0.4320823285895956</v>
+        <v>0.3946548962293858</v>
       </c>
       <c r="J10">
-        <v>0.4712464109548459</v>
+        <v>0.4349777614559394</v>
       </c>
       <c r="K10">
-        <v>0.4712464109548459</v>
+        <v>0.4349777614559394</v>
       </c>
       <c r="L10">
-        <v>0.4712464109548459</v>
+        <v>0.4349777614559394</v>
       </c>
       <c r="M10">
-        <v>0.514258310517265</v>
+        <v>0.4786314537678241</v>
       </c>
       <c r="N10">
-        <v>0.5202300476499336</v>
+        <v>0.490221674780487</v>
       </c>
       <c r="O10">
-        <v>0.5336239307400031</v>
+        <v>0.5082368072479823</v>
       </c>
       <c r="P10">
-        <v>0.6247494752946877</v>
+        <v>0.5935396278064367</v>
       </c>
       <c r="Q10">
-        <v>0.7850392635475502</v>
+        <v>0.7387138311363584</v>
       </c>
       <c r="R10">
-        <v>0.8091851678026968</v>
+        <v>0.7660363504893436</v>
       </c>
       <c r="S10">
-        <v>0.8253646628668008</v>
+        <v>0.7864628219932057</v>
       </c>
       <c r="T10">
-        <v>0.8815781515324509</v>
+        <v>0.8415443468400683</v>
       </c>
       <c r="U10">
-        <v>0.8859850100867209</v>
+        <v>0.8517799452999707</v>
       </c>
       <c r="V10">
-        <v>0.8950249492731885</v>
+        <v>0.8660261268170935</v>
       </c>
       <c r="W10">
-        <v>0.9256622188359279</v>
+        <v>0.8989678360326369</v>
       </c>
       <c r="X10">
-        <v>0.9496675411095731</v>
+        <v>0.9261686619039153</v>
       </c>
       <c r="Y10">
-        <v>0.9496675411095731</v>
+        <v>0.9317107679880799</v>
       </c>
       <c r="Z10">
-        <v>0.9496675411095731</v>
+        <v>0.9317107679880799</v>
       </c>
       <c r="AA10">
-        <v>0.9496675411095731</v>
+        <v>0.9317107679880799</v>
       </c>
       <c r="AB10">
-        <v>0.9857347522917183</v>
+        <v>0.9693528555456588</v>
       </c>
       <c r="AC10">
-        <v>0.9936286209125504</v>
+        <v>0.9826069517619185</v>
       </c>
       <c r="AD10">
-        <v>0.9936286209125504</v>
+        <v>0.9826069517619185</v>
       </c>
       <c r="AE10">
-        <v>0.9936286209125504</v>
+        <v>0.9826069517619185</v>
       </c>
       <c r="AF10">
-        <v>0.9936286209125504</v>
+        <v>0.9826069517619185</v>
       </c>
       <c r="AG10">
-        <v>0.9936286209125504</v>
+        <v>0.9826069517619185</v>
       </c>
       <c r="AH10">
-        <v>0.9936286209125504</v>
+        <v>0.9880638326548561</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CF10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CG10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CH10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CK10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CL10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CM10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CO10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CP10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CQ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:95">
@@ -6799,277 +6799,277 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1021296662860383</v>
+        <v>0.121999165783371</v>
       </c>
       <c r="F11">
-        <v>0.1235856548877038</v>
+        <v>0.121999165783371</v>
       </c>
       <c r="G11">
-        <v>0.2387956064966624</v>
+        <v>0.2659846159858138</v>
       </c>
       <c r="H11">
-        <v>0.3979932173607859</v>
+        <v>0.4839076878407906</v>
       </c>
       <c r="I11">
-        <v>0.4063253279049923</v>
+        <v>0.4839076878407906</v>
       </c>
       <c r="J11">
-        <v>0.4063253279049923</v>
+        <v>0.4839076878407906</v>
       </c>
       <c r="K11">
-        <v>0.4472439258730823</v>
+        <v>0.5030188871609662</v>
       </c>
       <c r="L11">
-        <v>0.4620069800308581</v>
+        <v>0.5030188871609662</v>
       </c>
       <c r="M11">
-        <v>0.4620069800308581</v>
+        <v>0.5030188871609662</v>
       </c>
       <c r="N11">
-        <v>0.4972655634495193</v>
+        <v>0.5126163269088052</v>
       </c>
       <c r="O11">
-        <v>0.5268143485285223</v>
+        <v>0.5126163269088052</v>
       </c>
       <c r="P11">
-        <v>0.5268143485285223</v>
+        <v>0.5126163269088052</v>
       </c>
       <c r="Q11">
-        <v>0.5725211779866166</v>
+        <v>0.5397759301287887</v>
       </c>
       <c r="R11">
-        <v>0.7705232371226872</v>
+        <v>0.8229243097939252</v>
       </c>
       <c r="S11">
-        <v>0.8858759710859171</v>
+        <v>0.9671497588475804</v>
       </c>
       <c r="T11">
-        <v>0.8858759710859171</v>
+        <v>0.9671497588475804</v>
       </c>
       <c r="U11">
-        <v>0.9301135361568718</v>
+        <v>0.9918397168033385</v>
       </c>
       <c r="V11">
-        <v>0.9325176268158553</v>
+        <v>0.9918397168033385</v>
       </c>
       <c r="W11">
-        <v>0.9325176268158553</v>
+        <v>0.9918397168033385</v>
       </c>
       <c r="X11">
-        <v>0.9669212036592899</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y11">
-        <v>0.9758052885541079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z11">
-        <v>0.9758052885541079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.9758052885541079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB11">
-        <v>0.9758052885541079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC11">
-        <v>0.9758052885541079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD11">
-        <v>0.9885826680980997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.9885826680980997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.9885826680980997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.9885826680980997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.9885826680980997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.9885826680980997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CP11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CQ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7137,16 +7137,16 @@
         <v>61</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5217635160143125</v>
+        <v>0.5155062210924547</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -7178,16 +7178,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5177701085251566</v>
+        <v>0.5431489615497206</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>31</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5389986929305016</v>
+        <v>0.5119955513489783</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -7260,16 +7260,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5099643714436825</v>
+        <v>0.5217106733129978</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -7301,16 +7301,16 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5087020018986518</v>
+        <v>0.5193657425139999</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5231796126726505</v>
+        <v>0.5131273887603366</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5030071944873684</v>
+        <v>0.5006906653561909</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5398391238282166</v>
+        <v>0.5346145917982427</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -7465,16 +7465,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.514258310517265</v>
+        <v>0.5082368072479823</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>31</v>
@@ -7506,16 +7506,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5268143485285223</v>
+        <v>0.5030188871609662</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>31</v>
@@ -7601,16 +7601,16 @@
         <v>61</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7380463639995399</v>
+        <v>0.809267124736424</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7462199122283117</v>
+        <v>0.7246813431836295</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8572919290710903</v>
+        <v>0.7981096635260327</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -7724,16 +7724,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.706588218262873</v>
+        <v>0.714285359036365</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -7765,16 +7765,16 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7357962911214737</v>
+        <v>0.7744333928658813</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7313234871523134</v>
+        <v>0.7230915643603966</v>
       </c>
       <c r="G7">
         <v>14</v>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.728625995616502</v>
+        <v>0.7230594210322745</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -7888,16 +7888,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.703680806633689</v>
+        <v>0.8867086494002848</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>31</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7850392635475502</v>
+        <v>0.7387138311363584</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7705232371226872</v>
+        <v>0.8229243097939252</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8694591254215989</v>
+        <v>0.809267124736424</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8610923638280431</v>
+        <v>0.8351860833222873</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -8147,16 +8147,16 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8572919290710903</v>
+        <v>0.8231195274668359</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>31</v>
@@ -8188,16 +8188,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8266956892040819</v>
+        <v>0.8583103654145948</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -8229,16 +8229,16 @@
         <v>62</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8395033095650776</v>
+        <v>0.828510629207715</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>31</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9149273782323082</v>
+        <v>0.9030582236429824</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -8311,16 +8311,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8313853428645006</v>
+      </c>
+      <c r="G8">
         <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.802413274876533</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
       </c>
       <c r="H8">
         <v>31</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8974783064332965</v>
+        <v>0.8867086494002848</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -8393,16 +8393,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8091851678026968</v>
+        <v>0.8415443468400683</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>31</v>
@@ -8434,16 +8434,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8858759710859171</v>
+        <v>0.8229243097939252</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>31</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9488137038454</v>
+        <v>0.9043104533584616</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9781155338490141</v>
+        <v>0.9543581442938036</v>
       </c>
       <c r="G3">
         <v>26</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539088247503686</v>
+        <v>0.9020126998009053</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -8652,16 +8652,16 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.93413081721361</v>
+        <v>0.9064630172203927</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>31</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9855949207735247</v>
+        <v>0.9327356885852132</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9149273782323082</v>
+        <v>0.9030582236429824</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9804375198739052</v>
+        <v>0.9747657098367305</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9170390498915263</v>
+        <v>0.9098252157695087</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -8857,16 +8857,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.9261686619039153</v>
+      </c>
+      <c r="G10">
         <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9256622188359279</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
       </c>
       <c r="H10">
         <v>31</v>
@@ -8898,16 +8898,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9301135361568718</v>
+        <v>0.9671497588475804</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>31</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/31_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/31_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="122">
   <si>
     <t>Signal_Value_29</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -739,15 +742,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ11"/>
+  <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:96">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1031,10 +1034,13 @@
       <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:96">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1318,10 +1324,13 @@
       <c r="CQ2">
         <v>0.01574814825710637</v>
       </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:95">
+    <row r="3" spans="1:96">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1605,10 +1614,13 @@
       <c r="CQ3">
         <v>0</v>
       </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:95">
+    <row r="4" spans="1:96">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1892,10 +1904,13 @@
       <c r="CQ4">
         <v>0.007120317969810154</v>
       </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:96">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2179,10 +2194,13 @@
       <c r="CQ5">
         <v>0.0002984292923659752</v>
       </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:95">
+    <row r="6" spans="1:96">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2371,105 +2389,108 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01550700448997236</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.2029825174058745</v>
+        <v>0.2031639267808175</v>
       </c>
       <c r="BN6">
-        <v>0.02446998013500083</v>
+        <v>0.0244918494262969</v>
       </c>
       <c r="BO6">
-        <v>0.1525003015375685</v>
+        <v>0.1526365939864656</v>
       </c>
       <c r="BP6">
-        <v>0.05382783948036489</v>
+        <v>0.05387594645449971</v>
       </c>
       <c r="BQ6">
-        <v>0.0007722525646665647</v>
+        <v>0.0007729427416179824</v>
       </c>
       <c r="BR6">
-        <v>0.002891354193126894</v>
+        <v>0.002893938251909972</v>
       </c>
       <c r="BS6">
-        <v>0.008996847000093441</v>
+        <v>0.009004887655079907</v>
       </c>
       <c r="BT6">
-        <v>0.002824705733369806</v>
+        <v>0.002827230227144133</v>
       </c>
       <c r="BU6">
-        <v>0.02773818909328108</v>
+        <v>0.02776297924570294</v>
       </c>
       <c r="BV6">
-        <v>0.02685475088068094</v>
+        <v>0.02687875148740203</v>
       </c>
       <c r="BW6">
-        <v>0.001017583317427073</v>
+        <v>0.001018492751184847</v>
       </c>
       <c r="BX6">
-        <v>0.008992221356707814</v>
+        <v>0.009000257877667929</v>
       </c>
       <c r="BY6">
-        <v>0.1536566897801667</v>
+        <v>0.1537940157154496</v>
       </c>
       <c r="BZ6">
-        <v>0.09140115589757976</v>
+        <v>0.09148284286635103</v>
       </c>
       <c r="CA6">
-        <v>0.02081477815134771</v>
+        <v>0.02083338071841738</v>
       </c>
       <c r="CB6">
-        <v>0.033262458190486</v>
+        <v>0.03329218548831696</v>
       </c>
       <c r="CC6">
-        <v>0.003632852920006376</v>
+        <v>0.003636099670445284</v>
       </c>
       <c r="CD6">
-        <v>0.01626700330397541</v>
+        <v>0.01628154143730474</v>
       </c>
       <c r="CE6">
-        <v>0.08432520315351627</v>
+        <v>0.08440056620739658</v>
       </c>
       <c r="CF6">
-        <v>0.01419320942752569</v>
+        <v>0.01420589417143166</v>
       </c>
       <c r="CG6">
-        <v>0.0003056835997548678</v>
+        <v>0.0003059567950599146</v>
       </c>
       <c r="CH6">
-        <v>0.003068539119435448</v>
+        <v>0.003071281531790753</v>
       </c>
       <c r="CI6">
-        <v>0.001562742108124948</v>
+        <v>0.001564138760766048</v>
       </c>
       <c r="CJ6">
-        <v>8.42540960925189E-06</v>
+        <v>8.432939559665289E-06</v>
       </c>
       <c r="CK6">
-        <v>0.01047532143175768</v>
+        <v>0.01048468342774407</v>
       </c>
       <c r="CL6">
-        <v>0.0166382265562618</v>
+        <v>0.01665309645894262</v>
       </c>
       <c r="CM6">
-        <v>0.00292818303050507</v>
+        <v>0.002930800003927567</v>
       </c>
       <c r="CN6">
-        <v>0.0008261915357717605</v>
+        <v>0.0008269299190177809</v>
       </c>
       <c r="CO6">
-        <v>0.0084821388396945</v>
+        <v>0.00848971949011087</v>
       </c>
       <c r="CP6">
-        <v>0.001573908999861026</v>
+        <v>0.001575315632567778</v>
       </c>
       <c r="CQ6">
-        <v>0.007201741356485184</v>
+        <v>0.007208177691075364</v>
+      </c>
+      <c r="CR6">
+        <v>0.01462714418853499</v>
       </c>
     </row>
-    <row r="7" spans="1:95">
+    <row r="7" spans="1:96">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2753,10 +2774,13 @@
       <c r="CQ7">
         <v>0</v>
       </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:95">
+    <row r="8" spans="1:96">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3040,10 +3064,13 @@
       <c r="CQ8">
         <v>0</v>
       </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:95">
+    <row r="9" spans="1:96">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3327,10 +3354,13 @@
       <c r="CQ9">
         <v>0</v>
       </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:95">
+    <row r="10" spans="1:96">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3614,10 +3644,13 @@
       <c r="CQ10">
         <v>0</v>
       </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:95">
+    <row r="11" spans="1:96">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3899,6 +3932,9 @@
         <v>0</v>
       </c>
       <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
         <v>0</v>
       </c>
     </row>
@@ -3909,15 +3945,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ11"/>
+  <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:96">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4201,10 +4237,13 @@
       <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:96">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4488,10 +4527,13 @@
       <c r="CQ2">
         <v>1</v>
       </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:95">
+    <row r="3" spans="1:96">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4775,10 +4817,13 @@
       <c r="CQ3">
         <v>1</v>
       </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:95">
+    <row r="4" spans="1:96">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5062,10 +5107,13 @@
       <c r="CQ4">
         <v>1</v>
       </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:96">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5349,10 +5397,13 @@
       <c r="CQ5">
         <v>1</v>
       </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:95">
+    <row r="6" spans="1:96">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5541,105 +5592,108 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01550700448997236</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.2184895218958469</v>
+        <v>0.2031639267808175</v>
       </c>
       <c r="BN6">
-        <v>0.2429595020308477</v>
+        <v>0.2276557762071144</v>
       </c>
       <c r="BO6">
-        <v>0.3954598035684163</v>
+        <v>0.3802923701935801</v>
       </c>
       <c r="BP6">
-        <v>0.4492876430487812</v>
+        <v>0.4341683166480798</v>
       </c>
       <c r="BQ6">
-        <v>0.4500598956134477</v>
+        <v>0.4349412593896978</v>
       </c>
       <c r="BR6">
-        <v>0.4529512498065746</v>
+        <v>0.4378351976416078</v>
       </c>
       <c r="BS6">
-        <v>0.4619480968066681</v>
+        <v>0.4468400852966877</v>
       </c>
       <c r="BT6">
-        <v>0.4647728025400379</v>
+        <v>0.4496673155238318</v>
       </c>
       <c r="BU6">
-        <v>0.492510991633319</v>
+        <v>0.4774302947695347</v>
       </c>
       <c r="BV6">
-        <v>0.5193657425139999</v>
+        <v>0.5043090462569367</v>
       </c>
       <c r="BW6">
-        <v>0.520383325831427</v>
+        <v>0.5053275390081216</v>
       </c>
       <c r="BX6">
-        <v>0.5293755471881348</v>
+        <v>0.5143277968857894</v>
       </c>
       <c r="BY6">
-        <v>0.6830322369683015</v>
+        <v>0.668121812601239</v>
       </c>
       <c r="BZ6">
-        <v>0.7744333928658813</v>
+        <v>0.75960465546759</v>
       </c>
       <c r="CA6">
-        <v>0.795248171017229</v>
+        <v>0.7804380361860074</v>
       </c>
       <c r="CB6">
-        <v>0.828510629207715</v>
+        <v>0.8137302216743243</v>
       </c>
       <c r="CC6">
-        <v>0.8321434821277214</v>
+        <v>0.8173663213447696</v>
       </c>
       <c r="CD6">
-        <v>0.8484104854316968</v>
+        <v>0.8336478627820744</v>
       </c>
       <c r="CE6">
-        <v>0.9327356885852132</v>
+        <v>0.9180484289894709</v>
       </c>
       <c r="CF6">
-        <v>0.9469288980127388</v>
+        <v>0.9322543231609026</v>
       </c>
       <c r="CG6">
-        <v>0.9472345816124937</v>
+        <v>0.9325602799559626</v>
       </c>
       <c r="CH6">
-        <v>0.9503031207319292</v>
+        <v>0.9356315614877533</v>
       </c>
       <c r="CI6">
-        <v>0.9518658628400541</v>
+        <v>0.9371957002485193</v>
       </c>
       <c r="CJ6">
-        <v>0.9518742882496634</v>
+        <v>0.9372041331880789</v>
       </c>
       <c r="CK6">
-        <v>0.962349609681421</v>
+        <v>0.947688816615823</v>
       </c>
       <c r="CL6">
-        <v>0.9789878362376828</v>
+        <v>0.9643419130747657</v>
       </c>
       <c r="CM6">
-        <v>0.9819160192681878</v>
+        <v>0.9672727130786932</v>
       </c>
       <c r="CN6">
-        <v>0.9827422108039596</v>
+        <v>0.968099642997711</v>
       </c>
       <c r="CO6">
-        <v>0.9912243496436541</v>
+        <v>0.9765893624878219</v>
       </c>
       <c r="CP6">
-        <v>0.9927982586435151</v>
+        <v>0.9781646781203897</v>
       </c>
       <c r="CQ6">
+        <v>0.9853728558114651</v>
+      </c>
+      <c r="CR6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:95">
+    <row r="7" spans="1:96">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5923,10 +5977,13 @@
       <c r="CQ7">
         <v>0.9999999999999999</v>
       </c>
+      <c r="CR7">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:95">
+    <row r="8" spans="1:96">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6210,10 +6267,13 @@
       <c r="CQ8">
         <v>0.9999999999999997</v>
       </c>
+      <c r="CR8">
+        <v>0.9999999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:95">
+    <row r="9" spans="1:96">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6497,10 +6557,13 @@
       <c r="CQ9">
         <v>1</v>
       </c>
+      <c r="CR9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:95">
+    <row r="10" spans="1:96">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6784,10 +6847,13 @@
       <c r="CQ10">
         <v>1</v>
       </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:95">
+    <row r="11" spans="1:96">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7069,6 +7135,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="CQ11">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CR11">
         <v>0.9999999999999998</v>
       </c>
     </row>
@@ -7087,48 +7156,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -7155,21 +7224,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -7196,21 +7265,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -7237,21 +7306,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -7278,21 +7347,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -7307,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5193657425139999</v>
+        <v>0.5043090462569367</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -7319,21 +7388,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -7360,21 +7429,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -7401,21 +7470,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -7442,21 +7511,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -7483,21 +7552,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -7524,16 +7593,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7551,48 +7620,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -7619,21 +7688,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -7660,21 +7729,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -7701,21 +7770,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -7742,21 +7811,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -7771,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7744333928658813</v>
+        <v>0.75960465546759</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -7783,21 +7852,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -7824,21 +7893,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -7865,21 +7934,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -7906,21 +7975,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -7947,21 +8016,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -7988,16 +8057,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8015,48 +8084,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -8083,21 +8152,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -8124,21 +8193,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -8165,21 +8234,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -8206,21 +8275,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -8235,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.828510629207715</v>
+        <v>0.8137302216743243</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -8247,21 +8316,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -8288,21 +8357,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -8329,21 +8398,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -8370,21 +8439,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -8411,21 +8480,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -8452,16 +8521,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -8479,48 +8548,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -8547,21 +8616,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -8588,21 +8657,21 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -8629,21 +8698,21 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -8670,21 +8739,21 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -8699,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9327356885852132</v>
+        <v>0.9180484289894709</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -8711,21 +8780,21 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -8752,21 +8821,21 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -8793,21 +8862,21 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -8834,21 +8903,21 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -8875,21 +8944,21 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -8916,16 +8985,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
